--- a/Main_files/Result_allmodels.xlsx
+++ b/Main_files/Result_allmodels.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="714" uniqueCount="386">
   <si>
     <t>model_name</t>
   </si>
@@ -484,255 +484,76 @@
     <t>&gt;modfile copied&gt;steadystatefile_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied&gt;extrafile3_copied&gt;extrafile4_copied&gt;extrafile5_copied&gt;extrafile6_copied&gt;extrafile7_copied&gt;extrafile8_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Error: Dynare: preprocessing failed (Error ID: "")
+    <t>Error: Unrecognized field name "ys". (Error ID: "MATLAB:nonExistentField")
+Error in: run_files&gt;mmb_loop_Max&gt;create_matrix_quadratic_from_dynare
+  line 7: z = repmat(oo_.dr.ys,1,klen);
+Error in: run_files&gt;mmb_loop_Max
+  line 74: create_matrix_quadratic_from_dynare;
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
+  </si>
+  <si>
+    <t>Error: Index in position 1 exceeds array bounds. (Error ID: "MATLAB:badsubscript")
+Error in: run_files&gt;mmb_loop_Max
+  line 76: BETA_ZS_dynare=oo_.dr.ghu(oo_.dr.inv_order_var,:);%BETA_ZS_dynare=BETA_ZS_dynare(1:2,:);
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
+  </si>
+  <si>
+    <t>Error: Dot indexing is not supported for variables of this type. (Error ID: "MATLAB:structRefFromNonStruct")
+Error in: run_files&gt;mmb_loop_Max&gt;create_matrix_quadratic_from_dynare
+  line 7: z = repmat(oo_.dr.ys,1,klen);
+Error in: run_files&gt;mmb_loop_Max
+  line 74: create_matrix_quadratic_from_dynare;
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
+  </si>
+  <si>
+    <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
+Error in: run_files&gt;mmb_loop_Max&gt;create_matrix_quadratic_from_dynare
+  line 34:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
+Error in: run_files&gt;mmb_loop_Max
+  line 74: create_matrix_quadratic_from_dynare;
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
+  </si>
+  <si>
+    <t>Error: Impossible to find the steady state (the sum of square residuals of the static equations is 0.0000). Either the model doesn't have a steady state or there are an infinity of steady states Check whether your model is truly linear or whether there is a mistake in linearization. (Error ID: "")
+Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady&gt;print_info
+  line 32:     error(message);
+Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady
+  line 102:     print_info(info,options_.noprint, options_);
+Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver
+  line 619: steady;
 Error in: run_files&gt;mmb_loop_Max&gt;dynare
-  line 297:     error('Dynare: preprocessing failed')
+  line 281:     evalin('base',[fname '.driver']);
 Error in: run_files&gt;mmb_loop_Max
   line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
 Error in: run_files
   line 37: mmb_loop_Max;</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Unrecognized field name "ys". (Error ID: "MATLAB:nonExistentField")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 19: z = repmat(oo_.dr.ys,1,klen);
-Error in: run_files&gt;mmb_loop_Max
-  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Dynare: preprocessing failed (Error ID: "")
-Error in: run_files&gt;mmb_loop_Max&gt;dynare
-  line 297:     error('Dynare: preprocessing failed')
-Error in: run_files&gt;mmb_loop_Max
-  line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Unable to perform assignment because the left and right sides have a different number of elements. (Error ID: "MATLAB:matrix:singleSubscriptNumelMismatch")
-Error in: run_files&gt;mmb_loop_Max&gt;dyn_first_order_solver
-  line 213:         info(2) = temp'*temp;
-Error in: run_files&gt;mmb_loop_Max
-  line 77:      tic; for jj=1:run_time_reps; [dr,info] = dyn_first_order_solver(jacobia_,M_,oo_.dr,options_,0); end;   AMG_JS_Results(2,1,loop_k) = toc/run_time_reps;   
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Dot indexing is not supported for variables of this type. (Error ID: "MATLAB:structRefFromNonStruct")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 19: z = repmat(oo_.dr.ys,1,klen);
-Error in: run_files&gt;mmb_loop_Max
-  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Dynare: preprocessing failed (Error ID: "")
-Error in: run_files&gt;mmb_loop_Max&gt;dynare
-  line 297:     error('Dynare: preprocessing failed')
-Error in: run_files&gt;mmb_loop_Max
-  line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 46:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
-Error in: run_files&gt;mmb_loop_Max
-  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 46:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
-Error in: run_files&gt;mmb_loop_Max
-  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>Error: The steady state has NaNs or Inf. (Error ID: "")
-Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady&gt;print_info
-  line 33:     error(message);
-Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady
-  line 143:     print_info(info,options_.noprint, options_);
-Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver
-  line 1219: steady;
-Error in: run_files&gt;mmb_loop_Max&gt;dynare
-  line 310:     evalin('base',[fname '.driver']);
-Error in: run_files&gt;mmb_loop_Max
-  line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Dynare: preprocessing failed (Error ID: "")
-Error in: run_files&gt;mmb_loop_Max&gt;dynare
-  line 297:     error('Dynare: preprocessing failed')
-Error in: run_files&gt;mmb_loop_Max
-  line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 46:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
-Error in: run_files&gt;mmb_loop_Max
-  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>error_flag</t>
   </si>
   <si>
@@ -1291,9 +1112,6 @@
     <t>there is another alternative policy regime version in the respective folder</t>
   </si>
   <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
     <t>2 alternative files in the same folder</t>
   </si>
   <si>
@@ -1303,18 +1121,6 @@
     <t>other alternative files in same folder</t>
   </si>
   <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
     <t>sidefile copied from mmb-rep-master\US_LWY13\US_LWY13_rep and renamed from param.mat to paramfile_leeper.mat</t>
   </si>
   <si>
@@ -1351,45 +1157,15 @@
     <t>other_sidefiles_1</t>
   </si>
   <si>
-    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegss.m;mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegssHH.m</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\median_values.txt</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\FI_AINO16\FI_AINO16_rep\all_parameters_February2016.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\NK_DT12\param_Fio2_Revision.m</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\NK_GHP16\Replication\NK_GHP16_rep\parameterfile.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\parameterfile.mat</t>
-  </si>
-  <si>
     <t>models_current\US_CMR10\ss_CMR_baseline_US.mat</t>
   </si>
   <si>
-    <t>mmb-rep-master\US_CMR10\Replication files\steady_state\ss_parameters_US_FAM.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\RunDynarePruning.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Dynare_Unfold_Matrices.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\StateSpaceDynare_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\reduceControlsDynare.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Simulate_Pruning_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\hpf.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\make_irfs.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\loc.m</t>
-  </si>
-  <si>
     <t>models_current\US_FRB08\Sigma_US_FRB08.mat</t>
   </si>
   <si>
     <t>models_current\US_FRB08mx\Sigma_US_FRB08mx.mat</t>
   </si>
   <si>
-    <t>mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_param_FI.mat;mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_std_FI.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_KK14\multipliers\draws_ext.mat;mmb-rep-master\US_KK14\multipliers\setparams2.m</t>
-  </si>
-  <si>
     <t>models_current\US_VMDno\FIMSteadyStateMMB.mat</t>
   </si>
   <si>
@@ -1399,76 +1175,7 @@
     <t>rep_comment_1</t>
   </si>
   <si>
-    <t>new steadystate file</t>
-  </si>
-  <si>
-    <t>this is the version with Financial frictions, "NK_CW09_FF.mod" from the directory "mmb-rep-master\NK_CW09". There are also files "NK_CW09_NoFF.mod" and "NK_CW09_RepHH.mod".</t>
-  </si>
-  <si>
-    <t>there are lots of other files in the folder "mmb-rep-master\NK_DEFK17\NK_DEFK17_rep" where the taken version "DEFK_int.mod" came from</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>the chosen version is with imperfectly competitive labor market, a version with perfectly competitive labor market was also in folder "mmb-rep-master\NK_GLSV07\NK_GLSV07_rep"</t>
-  </si>
-  <si>
-    <t>there are 3 alternative policy regime versions of the .mod file in the replication folder</t>
-  </si>
-  <si>
-    <t>there is another alternative policy regime version in the respective folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>2 alternative files in the same folder</t>
-  </si>
-  <si>
-    <t>3 alternative files in the same folder</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
     <t>manual_adaption_comment_1</t>
-  </si>
-  <si>
-    <t>adapted starting from "mmb-rep-master\EA_ALSV06\ALSV06WPh_rep.mod"; Parameter directly put in .mod file, had been loaded from run.m file in old version; alternative file "mmb-rep-master\EA_ALSV06\ALSV06WP_rep.mod" would have been without habit formation</t>
-  </si>
-  <si>
-    <t>deleted close all and dynare &lt;early version&gt; calls</t>
-  </si>
-  <si>
-    <t>I deleted figure closing matlab statements</t>
-  </si>
-  <si>
-    <t>I had to come up with a interest rate rule, I also hard coded the respective 2 parameters.</t>
-  </si>
-  <si>
-    <t>I had to come up with interest rate rule parameters and hard coded them into the mod file</t>
-  </si>
-  <si>
-    <t>I only changed the "stoch_simul()" command input "linear" to "order=1" from the file "mmb-rep-master\US_CCF12\US_CCF12_rep\chen_replication.mod"</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_endo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_exo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
   </si>
   <si>
     <t>error_loop_run_descr</t>
@@ -1523,7 +1230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1562,14 +1269,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="true"/>
     <col min="2" max="2" width="19.42578125" customWidth="true"/>
     <col min="3" max="3" width="148.140625" customWidth="true"/>
-    <col min="4" max="4" width="144" customWidth="true"/>
+    <col min="4" max="4" width="253.85546875" customWidth="true"/>
     <col min="5" max="5" width="9.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
     <col min="7" max="7" width="74.5703125" customWidth="true"/>
@@ -1604,70 +1314,70 @@
         <v>153</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="I1" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="V1" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="P1" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>461</v>
-      </c>
       <c r="W1" s="0" t="s">
-        <v>465</v>
+        <v>380</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>469</v>
+        <v>384</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
@@ -1681,7 +1391,7 @@
         <v>154</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -1690,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -1740,7 +1450,7 @@
         <v>154</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -1749,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -1799,7 +1509,7 @@
         <v>154</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
@@ -1808,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -1858,16 +1568,16 @@
         <v>155</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0">
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1888,11 +1598,11 @@
         <v>1</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="O5" s="0"/>
       <c r="P5" s="0" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="0"/>
       <c r="R5" s="0" t="b">
@@ -1900,7 +1610,7 @@
       </c>
       <c r="S5" s="0"/>
       <c r="T5" s="0" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
@@ -1920,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1932,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1979,10 +1689,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -1991,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="H7" s="0">
         <v>1</v>
@@ -2038,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -2050,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
@@ -2097,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -2109,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="H9" s="0">
         <v>1</v>
@@ -2156,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E10" s="0">
         <v>0</v>
@@ -2168,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="H10" s="0">
         <v>0</v>
@@ -2215,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -2227,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
@@ -2251,7 +1961,7 @@
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
       <c r="Q11" s="0" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="R11" s="0" t="b">
         <v>0</v>
@@ -2259,7 +1969,7 @@
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
@@ -2278,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2290,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2337,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -2349,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="H13" s="0">
         <v>1</v>
@@ -2396,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
@@ -2408,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="H14" s="0">
         <v>0</v>
@@ -2455,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -2467,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="H15" s="0">
         <v>0</v>
@@ -2514,10 +2224,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -2526,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="H16" s="0">
         <v>1</v>
@@ -2573,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -2585,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
@@ -2632,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -2644,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="H18" s="0">
         <v>1</v>
@@ -2665,23 +2375,23 @@
         <v>1</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="Q18" s="0"/>
       <c r="R18" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>421</v>
+        <v>330</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0"/>
@@ -2701,10 +2411,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -2713,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -2760,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -2772,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="H20" s="0">
         <v>1</v>
@@ -2794,7 +2504,7 @@
       </c>
       <c r="N20" s="0"/>
       <c r="O20" s="0" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="P20" s="0"/>
       <c r="Q20" s="0"/>
@@ -2802,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>422</v>
+        <v>331</v>
       </c>
       <c r="T20" s="0"/>
       <c r="U20" s="0"/>
@@ -2823,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -2835,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -2882,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="E22" s="0">
         <v>1</v>
@@ -2894,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -2925,10 +2635,10 @@
       <c r="T22" s="0"/>
       <c r="U22" s="0"/>
       <c r="V22" s="0" t="s">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>466</v>
+        <v>381</v>
       </c>
       <c r="X22" s="0">
         <v>1</v>
@@ -2945,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="E23" s="0">
         <v>1</v>
@@ -2957,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -2988,10 +2698,10 @@
       <c r="T23" s="0"/>
       <c r="U23" s="0"/>
       <c r="V23" s="0" t="s">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>466</v>
+        <v>381</v>
       </c>
       <c r="X23" s="0">
         <v>1</v>
@@ -3008,10 +2718,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="E24" s="0">
         <v>0</v>
@@ -3020,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -3067,10 +2777,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="E25" s="0">
         <v>0</v>
@@ -3079,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
@@ -3126,10 +2836,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -3138,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -3185,10 +2895,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -3197,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="H27" s="0">
         <v>1</v>
@@ -3244,19 +2954,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
@@ -3303,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -3315,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="H29" s="0">
         <v>1</v>
@@ -3362,10 +3072,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -3374,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
@@ -3421,19 +3131,19 @@
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="E31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0">
         <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="H31" s="0">
         <v>1</v>
@@ -3455,7 +3165,7 @@
       </c>
       <c r="N31" s="0"/>
       <c r="O31" s="0" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="P31" s="0"/>
       <c r="Q31" s="0"/>
@@ -3463,15 +3173,15 @@
         <v>1</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>423</v>
+        <v>332</v>
       </c>
       <c r="T31" s="0"/>
       <c r="U31" s="0"/>
       <c r="V31" s="0" t="s">
-        <v>463</v>
+        <v>378</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>467</v>
+        <v>382</v>
       </c>
       <c r="X31" s="0">
         <v>1</v>
@@ -3488,10 +3198,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
@@ -3500,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="H32" s="0">
         <v>1</v>
@@ -3547,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -3559,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="H33" s="0">
         <v>1</v>
@@ -3606,10 +3316,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -3618,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="H34" s="0">
         <v>1</v>
@@ -3665,10 +3375,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -3677,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="H35" s="0">
         <v>1</v>
@@ -3724,10 +3434,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -3736,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -3783,10 +3493,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -3795,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -3842,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
@@ -3854,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="H38" s="0">
         <v>1</v>
@@ -3901,10 +3611,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -3913,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -3960,10 +3670,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -3972,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -4072,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -4084,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -4131,10 +3841,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
@@ -4143,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="H43" s="0">
         <v>1</v>
@@ -4190,10 +3900,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -4202,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
@@ -4302,10 +4012,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -4314,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -4414,10 +4124,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -4426,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -4473,10 +4183,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -4485,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -4532,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E50" s="0">
         <v>0</v>
@@ -4544,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="H50" s="0">
         <v>0</v>
@@ -4567,20 +4277,20 @@
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
       <c r="P50" s="0" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="R50" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S50" s="0"/>
       <c r="T50" s="0" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
@@ -4599,10 +4309,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -4611,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="H51" s="0">
         <v>0</v>
@@ -4634,20 +4344,20 @@
       <c r="N51" s="0"/>
       <c r="O51" s="0"/>
       <c r="P51" s="0" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="R51" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S51" s="0"/>
       <c r="T51" s="0" t="s">
-        <v>439</v>
+        <v>349</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
@@ -4666,10 +4376,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -4678,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="H52" s="0">
         <v>0</v>
@@ -4699,10 +4409,10 @@
         <v>1</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="P52" s="0"/>
       <c r="Q52" s="0"/>
@@ -4710,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="T52" s="0"/>
       <c r="U52" s="0"/>
@@ -4731,10 +4441,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -4743,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="H53" s="0">
         <v>1</v>
@@ -4790,10 +4500,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E54" s="0">
         <v>0</v>
@@ -4802,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -4823,11 +4533,11 @@
         <v>1</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="O54" s="0"/>
       <c r="P54" s="0" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="Q54" s="0"/>
       <c r="R54" s="0" t="b">
@@ -4835,7 +4545,7 @@
       </c>
       <c r="S54" s="0"/>
       <c r="T54" s="0" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="U54" s="0"/>
       <c r="V54" s="0"/>
@@ -4855,10 +4565,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -4867,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -4889,7 +4599,7 @@
       </c>
       <c r="N55" s="0"/>
       <c r="O55" s="0" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="P55" s="0"/>
       <c r="Q55" s="0"/>
@@ -4897,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>425</v>
+        <v>334</v>
       </c>
       <c r="T55" s="0"/>
       <c r="U55" s="0"/>
@@ -4918,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
@@ -4930,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="H56" s="0">
         <v>0</v>
@@ -4977,10 +4687,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -4989,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="H57" s="0">
         <v>1</v>
@@ -5010,11 +4720,11 @@
         <v>1</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="O57" s="0"/>
       <c r="P57" s="0" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="Q57" s="0"/>
       <c r="R57" s="0" t="b">
@@ -5022,7 +4732,7 @@
       </c>
       <c r="S57" s="0"/>
       <c r="T57" s="0" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
@@ -5042,10 +4752,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E58" s="0">
         <v>0</v>
@@ -5054,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="H58" s="0">
         <v>1</v>
@@ -5085,10 +4795,10 @@
       <c r="T58" s="0"/>
       <c r="U58" s="0"/>
       <c r="V58" s="0" t="s">
-        <v>464</v>
+        <v>379</v>
       </c>
       <c r="W58" s="0" t="s">
-        <v>468</v>
+        <v>383</v>
       </c>
       <c r="X58" s="0">
         <v>1</v>
@@ -5105,10 +4815,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E59" s="0">
         <v>0</v>
@@ -5117,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
@@ -5140,7 +4850,7 @@
       <c r="N59" s="0"/>
       <c r="O59" s="0"/>
       <c r="P59" s="0" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="Q59" s="0"/>
       <c r="R59" s="0" t="b">
@@ -5148,7 +4858,7 @@
       </c>
       <c r="S59" s="0"/>
       <c r="T59" s="0" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0"/>
@@ -5168,10 +4878,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -5180,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -5203,7 +4913,7 @@
       <c r="N60" s="0"/>
       <c r="O60" s="0"/>
       <c r="P60" s="0" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="Q60" s="0"/>
       <c r="R60" s="0" t="b">
@@ -5211,7 +4921,7 @@
       </c>
       <c r="S60" s="0"/>
       <c r="T60" s="0" t="s">
-        <v>442</v>
+        <v>352</v>
       </c>
       <c r="U60" s="0"/>
       <c r="V60" s="0"/>
@@ -5231,10 +4941,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -5243,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="H61" s="0">
         <v>1</v>
@@ -5290,10 +5000,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E62" s="0">
         <v>0</v>
@@ -5302,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -5325,7 +5035,7 @@
       <c r="N62" s="0"/>
       <c r="O62" s="0"/>
       <c r="P62" s="0" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="Q62" s="0"/>
       <c r="R62" s="0" t="b">
@@ -5333,7 +5043,7 @@
       </c>
       <c r="S62" s="0"/>
       <c r="T62" s="0" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0"/>
@@ -5353,10 +5063,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
@@ -5365,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="H63" s="0">
         <v>1</v>
@@ -5412,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
@@ -5424,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="H64" s="0">
         <v>1</v>
@@ -5445,11 +5155,11 @@
         <v>1</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="O64" s="0"/>
       <c r="P64" s="0" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="Q64" s="0"/>
       <c r="R64" s="0" t="b">
@@ -5457,7 +5167,7 @@
       </c>
       <c r="S64" s="0"/>
       <c r="T64" s="0" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0"/>
@@ -5477,10 +5187,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -5489,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="H65" s="0">
         <v>1</v>
@@ -5589,10 +5299,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
@@ -5601,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
@@ -5648,10 +5358,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
@@ -5660,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -5707,10 +5417,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E69" s="0">
         <v>0</v>
@@ -5719,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="H69" s="0">
         <v>0</v>
@@ -5766,10 +5476,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E70" s="0">
         <v>0</v>
@@ -5778,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="H70" s="0">
         <v>0</v>
@@ -5801,7 +5511,7 @@
       <c r="N70" s="0"/>
       <c r="O70" s="0"/>
       <c r="P70" s="0" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="Q70" s="0"/>
       <c r="R70" s="0" t="b">
@@ -5809,7 +5519,7 @@
       </c>
       <c r="S70" s="0"/>
       <c r="T70" s="0" t="s">
-        <v>445</v>
+        <v>354</v>
       </c>
       <c r="U70" s="0"/>
       <c r="V70" s="0"/>
@@ -5829,10 +5539,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E71" s="0">
         <v>0</v>
@@ -5841,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="H71" s="0">
         <v>1</v>
@@ -5888,10 +5598,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E72" s="0">
         <v>0</v>
@@ -5900,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="H72" s="0">
         <v>0</v>
@@ -6000,10 +5710,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E74" s="0">
         <v>0</v>
@@ -6012,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="H74" s="0">
         <v>0</v>
@@ -6059,10 +5769,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E75" s="0">
         <v>0</v>
@@ -6071,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="H75" s="0">
         <v>0</v>
@@ -6094,7 +5804,7 @@
       <c r="N75" s="0"/>
       <c r="O75" s="0"/>
       <c r="P75" s="0" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="Q75" s="0"/>
       <c r="R75" s="0" t="b">
@@ -6102,7 +5812,7 @@
       </c>
       <c r="S75" s="0"/>
       <c r="T75" s="0" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="U75" s="0"/>
       <c r="V75" s="0"/>
@@ -6122,10 +5832,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E76" s="0">
         <v>0</v>
@@ -6134,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="H76" s="0">
         <v>0</v>
@@ -6155,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="O76" s="0"/>
       <c r="P76" s="0"/>
@@ -6183,10 +5893,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E77" s="0">
         <v>0</v>
@@ -6195,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="H77" s="0">
         <v>1</v>
@@ -6242,10 +5952,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E78" s="0">
         <v>0</v>
@@ -6254,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H78" s="0">
         <v>0</v>
@@ -6301,10 +6011,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E79" s="0">
         <v>0</v>
@@ -6313,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="H79" s="0">
         <v>1</v>
@@ -6360,10 +6070,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E80" s="0">
         <v>0</v>
@@ -6372,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="H80" s="0">
         <v>1</v>
@@ -6419,10 +6129,10 @@
         <v>1</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E81" s="0">
         <v>0</v>
@@ -6431,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="H81" s="0">
         <v>1</v>
@@ -6478,10 +6188,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="E82" s="0">
         <v>1</v>
@@ -6490,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="H82" s="0">
         <v>0</v>
@@ -6514,7 +6224,7 @@
       <c r="O82" s="0"/>
       <c r="P82" s="0"/>
       <c r="Q82" s="0" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="R82" s="0" t="b">
         <v>0</v>
@@ -6522,7 +6232,7 @@
       <c r="S82" s="0"/>
       <c r="T82" s="0"/>
       <c r="U82" s="0" t="s">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="V82" s="0"/>
       <c r="W82" s="0"/>
@@ -6594,10 +6304,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E84" s="0">
         <v>0</v>
@@ -6606,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="H84" s="0">
         <v>0</v>
@@ -6630,7 +6340,7 @@
       <c r="O84" s="0"/>
       <c r="P84" s="0"/>
       <c r="Q84" s="0" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="R84" s="0" t="b">
         <v>0</v>
@@ -6638,7 +6348,7 @@
       <c r="S84" s="0"/>
       <c r="T84" s="0"/>
       <c r="U84" s="0" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
       <c r="V84" s="0"/>
       <c r="W84" s="0"/>
@@ -6710,10 +6420,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E86" s="0">
         <v>0</v>
@@ -6722,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="H86" s="0">
         <v>1</v>
@@ -6769,10 +6479,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E87" s="0">
         <v>0</v>
@@ -6781,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="H87" s="0">
         <v>1</v>
@@ -6828,10 +6538,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E88" s="0">
         <v>0</v>
@@ -6840,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="H88" s="0">
         <v>0</v>
@@ -6887,10 +6597,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E89" s="0">
         <v>0</v>
@@ -6899,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="H89" s="0">
         <v>0</v>
@@ -6946,10 +6656,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E90" s="0">
         <v>0</v>
@@ -6958,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="H90" s="0">
         <v>0</v>
@@ -7005,10 +6715,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E91" s="0">
         <v>0</v>
@@ -7017,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="H91" s="0">
         <v>0</v>
@@ -7064,10 +6774,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E92" s="0">
         <v>0</v>
@@ -7076,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="H92" s="0">
         <v>1</v>
@@ -7123,10 +6833,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E93" s="0">
         <v>0</v>
@@ -7135,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="H93" s="0">
         <v>0</v>
@@ -7158,7 +6868,7 @@
       <c r="N93" s="0"/>
       <c r="O93" s="0"/>
       <c r="P93" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q93" s="0"/>
       <c r="R93" s="0" t="b">
@@ -7166,7 +6876,7 @@
       </c>
       <c r="S93" s="0"/>
       <c r="T93" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U93" s="0"/>
       <c r="V93" s="0"/>
@@ -7186,10 +6896,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E94" s="0">
         <v>0</v>
@@ -7198,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="H94" s="0">
         <v>0</v>
@@ -7222,7 +6932,7 @@
       <c r="O94" s="0"/>
       <c r="P94" s="0"/>
       <c r="Q94" s="0" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="R94" s="0" t="b">
         <v>0</v>
@@ -7230,7 +6940,7 @@
       <c r="S94" s="0"/>
       <c r="T94" s="0"/>
       <c r="U94" s="0" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
       <c r="V94" s="0"/>
       <c r="W94" s="0"/>
@@ -7249,10 +6959,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="E95" s="0">
         <v>1</v>
@@ -7261,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="H95" s="0">
         <v>0</v>
@@ -7284,7 +6994,7 @@
       <c r="N95" s="0"/>
       <c r="O95" s="0"/>
       <c r="P95" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q95" s="0"/>
       <c r="R95" s="0" t="b">
@@ -7292,7 +7002,7 @@
       </c>
       <c r="S95" s="0"/>
       <c r="T95" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U95" s="0"/>
       <c r="V95" s="0"/>
@@ -7312,10 +7022,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E96" s="0">
         <v>0</v>
@@ -7324,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="H96" s="0">
         <v>1</v>
@@ -7371,10 +7081,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E97" s="0">
         <v>0</v>
@@ -7383,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="H97" s="0">
         <v>0</v>
@@ -7430,10 +7140,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E98" s="0">
         <v>0</v>
@@ -7442,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="H98" s="0">
         <v>0</v>
@@ -7465,7 +7175,7 @@
       <c r="N98" s="0"/>
       <c r="O98" s="0"/>
       <c r="P98" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q98" s="0"/>
       <c r="R98" s="0" t="b">
@@ -7473,7 +7183,7 @@
       </c>
       <c r="S98" s="0"/>
       <c r="T98" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U98" s="0"/>
       <c r="V98" s="0"/>
@@ -7493,10 +7203,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E99" s="0">
         <v>0</v>
@@ -7505,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="H99" s="0">
         <v>0</v>
@@ -7527,21 +7237,21 @@
       </c>
       <c r="N99" s="0"/>
       <c r="O99" s="0" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="P99" s="0"/>
       <c r="Q99" s="0" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="R99" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S99" s="0" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="T99" s="0"/>
       <c r="U99" s="0" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
       <c r="V99" s="0"/>
       <c r="W99" s="0"/>
@@ -7560,10 +7270,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E100" s="0">
         <v>0</v>
@@ -7572,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="H100" s="0">
         <v>0</v>
@@ -7594,21 +7304,21 @@
       </c>
       <c r="N100" s="0"/>
       <c r="O100" s="0" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="P100" s="0"/>
       <c r="Q100" s="0" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="R100" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S100" s="0" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="T100" s="0"/>
       <c r="U100" s="0" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
       <c r="V100" s="0"/>
       <c r="W100" s="0"/>
@@ -7627,10 +7337,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E101" s="0">
         <v>0</v>
@@ -7639,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="H101" s="0">
         <v>0</v>
@@ -7661,7 +7371,7 @@
       </c>
       <c r="N101" s="0"/>
       <c r="O101" s="0" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="P101" s="0"/>
       <c r="Q101" s="0"/>
@@ -7669,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="S101" s="0" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="T101" s="0"/>
       <c r="U101" s="0"/>
@@ -7690,10 +7400,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E102" s="0">
         <v>0</v>
@@ -7702,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="H102" s="0">
         <v>0</v>
@@ -7724,20 +7434,20 @@
       </c>
       <c r="N102" s="0"/>
       <c r="O102" s="0" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q102" s="0"/>
       <c r="R102" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="T102" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U102" s="0"/>
       <c r="V102" s="0"/>
@@ -7757,10 +7467,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E103" s="0">
         <v>0</v>
@@ -7769,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="H103" s="0">
         <v>1</v>
@@ -7790,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="O103" s="0"/>
       <c r="P103" s="0"/>
@@ -7818,10 +7528,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E104" s="0">
         <v>0</v>
@@ -7830,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="H104" s="0">
         <v>0</v>
@@ -7851,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="O104" s="0"/>
       <c r="P104" s="0"/>
@@ -7879,19 +7589,19 @@
         <v>1</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="E105" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="0">
         <v>0</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="H105" s="0">
         <v>0</v>
@@ -7914,7 +7624,7 @@
       <c r="N105" s="0"/>
       <c r="O105" s="0"/>
       <c r="P105" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q105" s="0"/>
       <c r="R105" s="0" t="b">
@@ -7922,7 +7632,7 @@
       </c>
       <c r="S105" s="0"/>
       <c r="T105" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U105" s="0"/>
       <c r="V105" s="0"/>
@@ -7942,10 +7652,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E106" s="0">
         <v>0</v>
@@ -7954,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="H106" s="0">
         <v>1</v>
@@ -8001,10 +7711,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E107" s="0">
         <v>0</v>
@@ -8013,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="H107" s="0">
         <v>1</v>
@@ -8060,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E108" s="0">
         <v>0</v>
@@ -8072,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="H108" s="0">
         <v>0</v>
@@ -8119,10 +7829,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E109" s="0">
         <v>0</v>
@@ -8131,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="H109" s="0">
         <v>0</v>
@@ -8178,10 +7888,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E110" s="0">
         <v>0</v>
@@ -8190,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="H110" s="0">
         <v>0</v>
@@ -8237,10 +7947,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E111" s="0">
         <v>0</v>
@@ -8249,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="H111" s="0">
         <v>0</v>
@@ -8271,7 +7981,7 @@
       </c>
       <c r="N111" s="0"/>
       <c r="O111" s="0" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="P111" s="0"/>
       <c r="Q111" s="0"/>
@@ -8279,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="T111" s="0"/>
       <c r="U111" s="0"/>
@@ -8300,10 +8010,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E112" s="0">
         <v>0</v>
@@ -8312,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="H112" s="0">
         <v>1</v>
@@ -8412,10 +8122,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E114" s="0">
         <v>0</v>
@@ -8424,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="H114" s="0">
         <v>0</v>
@@ -8471,10 +8181,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E115" s="0">
         <v>0</v>
@@ -8483,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="H115" s="0">
         <v>1</v>
@@ -8530,10 +8240,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E116" s="0">
         <v>0</v>
@@ -8542,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="H116" s="0">
         <v>0</v>
@@ -8564,7 +8274,7 @@
       </c>
       <c r="N116" s="0"/>
       <c r="O116" s="0" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="P116" s="0"/>
       <c r="Q116" s="0"/>
@@ -8572,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="S116" s="0" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="T116" s="0"/>
       <c r="U116" s="0"/>
@@ -8593,10 +8303,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E117" s="0">
         <v>0</v>
@@ -8605,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="H117" s="0">
         <v>0</v>
@@ -8627,7 +8337,7 @@
       </c>
       <c r="N117" s="0"/>
       <c r="O117" s="0" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="P117" s="0"/>
       <c r="Q117" s="0"/>
@@ -8635,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="S117" s="0" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="T117" s="0"/>
       <c r="U117" s="0"/>
@@ -8656,10 +8366,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E118" s="0">
         <v>0</v>
@@ -8668,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="H118" s="0">
         <v>0</v>
@@ -8691,7 +8401,7 @@
       <c r="N118" s="0"/>
       <c r="O118" s="0"/>
       <c r="P118" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q118" s="0"/>
       <c r="R118" s="0" t="b">
@@ -8699,7 +8409,7 @@
       </c>
       <c r="S118" s="0"/>
       <c r="T118" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U118" s="0"/>
       <c r="V118" s="0"/>
@@ -8719,10 +8429,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E119" s="0">
         <v>0</v>
@@ -8731,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="H119" s="0">
         <v>1</v>
@@ -8752,11 +8462,11 @@
         <v>1</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="O119" s="0"/>
       <c r="P119" s="0" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="Q119" s="0"/>
       <c r="R119" s="0" t="b">
@@ -8764,7 +8474,7 @@
       </c>
       <c r="S119" s="0"/>
       <c r="T119" s="0" t="s">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="U119" s="0"/>
       <c r="V119" s="0"/>
@@ -8784,10 +8494,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E120" s="0">
         <v>0</v>
@@ -8796,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="H120" s="0">
         <v>1</v>
@@ -8817,11 +8527,11 @@
         <v>1</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="O120" s="0"/>
       <c r="P120" s="0" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="Q120" s="0"/>
       <c r="R120" s="0" t="b">
@@ -8829,7 +8539,7 @@
       </c>
       <c r="S120" s="0"/>
       <c r="T120" s="0" t="s">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="U120" s="0"/>
       <c r="V120" s="0"/>
@@ -8849,10 +8559,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E121" s="0">
         <v>0</v>
@@ -8861,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="H121" s="0">
         <v>0</v>
@@ -8883,20 +8593,20 @@
       </c>
       <c r="N121" s="0"/>
       <c r="O121" s="0" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="Q121" s="0"/>
       <c r="R121" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S121" s="0" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="T121" s="0" t="s">
-        <v>449</v>
+        <v>356</v>
       </c>
       <c r="U121" s="0"/>
       <c r="V121" s="0"/>
@@ -8916,10 +8626,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E122" s="0">
         <v>0</v>
@@ -8928,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="H122" s="0">
         <v>1</v>
@@ -8975,10 +8685,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E123" s="0">
         <v>0</v>
@@ -8987,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="H123" s="0">
         <v>1</v>
@@ -9034,10 +8744,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E124" s="0">
         <v>0</v>
@@ -9046,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="H124" s="0">
         <v>1</v>
@@ -9093,10 +8803,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="E125" s="0">
         <v>1</v>
@@ -9105,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="H125" s="0">
         <v>1</v>
@@ -9126,11 +8836,11 @@
         <v>1</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="O125" s="0"/>
       <c r="P125" s="0" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="Q125" s="0"/>
       <c r="R125" s="0" t="b">
@@ -9138,7 +8848,7 @@
       </c>
       <c r="S125" s="0"/>
       <c r="T125" s="0" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="U125" s="0"/>
       <c r="V125" s="0"/>
@@ -9158,10 +8868,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E126" s="0">
         <v>0</v>
@@ -9170,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="H126" s="0">
         <v>1</v>
@@ -9217,10 +8927,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E127" s="0">
         <v>0</v>
@@ -9229,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="H127" s="0">
         <v>0</v>
@@ -9251,20 +8961,20 @@
       </c>
       <c r="N127" s="0"/>
       <c r="O127" s="0" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="P127" s="0" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="Q127" s="0"/>
       <c r="R127" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S127" s="0" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="T127" s="0" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="U127" s="0"/>
       <c r="V127" s="0"/>
@@ -9284,10 +8994,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E128" s="0">
         <v>0</v>
@@ -9296,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="H128" s="0">
         <v>0</v>
@@ -9319,7 +9029,7 @@
       <c r="N128" s="0"/>
       <c r="O128" s="0"/>
       <c r="P128" s="0" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="Q128" s="0"/>
       <c r="R128" s="0" t="b">
@@ -9327,7 +9037,7 @@
       </c>
       <c r="S128" s="0"/>
       <c r="T128" s="0" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="U128" s="0"/>
       <c r="V128" s="0"/>
@@ -9347,10 +9057,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E129" s="0">
         <v>0</v>
@@ -9359,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="H129" s="0">
         <v>0</v>
@@ -9406,17 +9116,19 @@
         <v>1</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D130" s="0"/>
+        <v>154</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>164</v>
+      </c>
       <c r="E130" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" s="0">
         <v>0</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="H130" s="0">
         <v>0</v>
@@ -9463,10 +9175,10 @@
         <v>1</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E131" s="0">
         <v>0</v>
@@ -9475,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="H131" s="0">
         <v>0</v>
@@ -9522,10 +9234,10 @@
         <v>1</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E132" s="0">
         <v>0</v>
@@ -9534,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="H132" s="0">
         <v>0</v>
@@ -9581,10 +9293,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E133" s="0">
         <v>0</v>
@@ -9593,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="H133" s="0">
         <v>1</v>
@@ -9615,10 +9327,10 @@
       </c>
       <c r="N133" s="0"/>
       <c r="O133" s="0" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="P133" s="0" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="Q133" s="0"/>
       <c r="R133" s="0" t="b">
@@ -9644,10 +9356,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E134" s="0">
         <v>0</v>
@@ -9656,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="H134" s="0">
         <v>0</v>
@@ -9756,10 +9468,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E136" s="0">
         <v>0</v>
@@ -9768,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="H136" s="0">
         <v>1</v>
@@ -9815,10 +9527,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="E137" s="0">
         <v>1</v>
@@ -9827,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="H137" s="0">
         <v>0</v>
@@ -9874,10 +9586,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="E138" s="0">
         <v>1</v>
@@ -9886,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="H138" s="0">
         <v>1</v>
@@ -9933,10 +9645,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="E139" s="0">
         <v>0</v>
@@ -9945,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="H139" s="0">
         <v>0</v>
@@ -9992,10 +9704,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="E140" s="0">
         <v>0</v>
@@ -10004,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="H140" s="0">
         <v>1</v>
@@ -10051,19 +9763,19 @@
         <v>1</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="E141" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" s="0">
         <v>0</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="H141" s="0">
         <v>1</v>
@@ -10110,10 +9822,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="E142" s="0">
         <v>0</v>
@@ -10122,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="H142" s="0">
         <v>0</v>
@@ -10169,10 +9881,10 @@
         <v>1</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="E143" s="0">
         <v>0</v>
@@ -10181,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="H143" s="0">
         <v>0</v>
@@ -10228,10 +9940,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="E144" s="0">
         <v>1</v>
@@ -10240,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="H144" s="0">
         <v>0</v>
@@ -10287,10 +9999,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E145" s="0">
         <v>0</v>
@@ -10299,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="H145" s="0">
         <v>1</v>
@@ -10399,10 +10111,10 @@
         <v>1</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E147" s="0">
         <v>0</v>
@@ -10411,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="H147" s="0">
         <v>1</v>
@@ -10458,10 +10170,10 @@
         <v>1</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E148" s="0">
         <v>0</v>
@@ -10470,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="H148" s="0">
         <v>0</v>
@@ -10517,10 +10229,10 @@
         <v>1</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E149" s="0">
         <v>0</v>
@@ -10529,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="H149" s="0">
         <v>0</v>
@@ -10551,7 +10263,7 @@
       </c>
       <c r="N149" s="0"/>
       <c r="O149" s="0" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="P149" s="0"/>
       <c r="Q149" s="0"/>
@@ -10559,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="S149" s="0" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="T149" s="0"/>
       <c r="U149" s="0"/>
@@ -10580,10 +10292,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E150" s="0">
         <v>0</v>
@@ -10592,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="H150" s="0">
         <v>0</v>
@@ -10614,7 +10326,7 @@
       </c>
       <c r="N150" s="0"/>
       <c r="O150" s="0" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="P150" s="0"/>
       <c r="Q150" s="0"/>
@@ -10622,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="S150" s="0" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="T150" s="0"/>
       <c r="U150" s="0"/>
@@ -10643,10 +10355,10 @@
         <v>1</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E151" s="0">
         <v>0</v>
@@ -10655,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="H151" s="0">
         <v>0</v>
